--- a/Bemaßungen und Material.xlsx
+++ b/Bemaßungen und Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unihamburgde-my.sharepoint.com/personal/luke_porr_studium_uni-hamburg_de/Documents/Grafiken/Secret-Hitler-Deutsch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{A23BB451-F425-402A-9111-034C43B33C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAF23E14-17F6-4DEC-9AE5-C9B7E6C8B01C}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{A23BB451-F425-402A-9111-034C43B33C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2EA87F7B-19C6-441D-9447-9B3115F5B52B}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2961D4EB-5F1C-47FA-BCE9-A76188E42B6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Datei</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Parteibuch faschistisch</t>
   </si>
   <si>
-    <t>Karte Rolle faschist</t>
-  </si>
-  <si>
     <t>Karte Gesetz faschistisch</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>Karte Abstimmung nein</t>
+  </si>
+  <si>
+    <t>Karte Rolle Hitler</t>
+  </si>
+  <si>
+    <t>Karte Rolle Liberaler</t>
+  </si>
+  <si>
+    <t>Karte Rolle Faschist</t>
   </si>
 </sst>
 </file>
@@ -167,10 +173,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FC7C6E7-5CDD-44DF-A655-123454AEAD77}" name="Tabelle1" displayName="Tabelle1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{D04EADE8-3942-4932-8CD5-4E1DC9EA711C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
-    <sortCondition ref="A1:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FC7C6E7-5CDD-44DF-A655-123454AEAD77}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{D04EADE8-3942-4932-8CD5-4E1DC9EA711C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{11C1B2B7-4C79-496E-986A-2920A67CC3D9}" name="Datei"/>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE013D82-FF67-40E2-8BA7-437E09A9CFAF}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,7 +512,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -520,7 +526,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -534,7 +540,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -548,7 +554,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -562,7 +568,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -576,7 +582,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -590,7 +596,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -604,7 +610,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -618,7 +624,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -632,7 +638,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -646,7 +652,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -688,7 +694,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -702,35 +708,35 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -744,29 +750,57 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
         <v>63</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>89</v>
       </c>
     </row>
